--- a/users/gemstech/uploads/data.xlsx
+++ b/users/gemstech/uploads/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B258B9C-6B31-4EF5-9E32-A8477C6D3C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2C68D3-8005-48FA-B0EC-41D05082BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Kế hoạch triển khai G-office:</t>
   </si>
@@ -60,16 +60,10 @@
     <t>Mã số thuế</t>
   </si>
   <si>
-    <t>Lĩnh vực hoạt động</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
     <t>Mạng XH</t>
-  </si>
-  <si>
-    <t>Giáo dục</t>
   </si>
   <si>
     <t>https://gemstech.com.vn/</t>
@@ -91,21 +85,24 @@
     <t>https://www.facebook.com/gemstech.com.vn</t>
   </si>
   <si>
-    <t>Công ty công nghệ thông tin</t>
-  </si>
-  <si>
     <t>Thắng Đại</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>09323223232</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +124,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +132,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,12 +145,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF65676B"/>
-      <name val="Segoe UI Historic"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,17 +181,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,39 +472,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="4" max="4" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="36.69921875" customWidth="1"/>
+    <col min="6" max="6" width="25.296875" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="37.69921875" customWidth="1"/>
+    <col min="10" max="10" width="43.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,31 +523,28 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5">
-        <v>9323223232</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -565,23 +552,20 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="G3">
         <v>12345678934</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/users/gemstech/uploads/data.xlsx
+++ b/users/gemstech/uploads/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2C68D3-8005-48FA-B0EC-41D05082BFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0330CEFF-CA13-4F26-A306-853DC082EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1404" windowWidth="21168" windowHeight="10956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Kế hoạch triển khai G-office:</t>
   </si>
@@ -85,13 +85,28 @@
     <t>https://www.facebook.com/gemstech.com.vn</t>
   </si>
   <si>
-    <t>Thắng Đại</t>
-  </si>
-  <si>
     <t>ghi chú</t>
   </si>
   <si>
-    <t>09323223232</t>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Lĩnh vực hoạt động</t>
+  </si>
+  <si>
+    <t>Giáo dục</t>
+  </si>
+  <si>
+    <t>Y tế</t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -493,7 +508,7 @@
     <col min="11" max="11" width="33.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -504,7 +519,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -527,24 +542,27 @@
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -559,14 +577,62 @@
         <v>12345678934</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>12345678934</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -574,8 +640,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{3CB7CB0F-4A84-411E-B3F8-FCD2BB46D023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="156" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <pageSetup paperSize="156" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId3"/>
 </worksheet>
 </file>